--- a/data/isco.xlsx
+++ b/data/isco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bismillah screepsweet\AI-Occupation-Impact\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{3ABA7F29-3C6E-4A8D-8B9F-AE39060DCBF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:81_{EBD6F230-A905-44CF-AFDB-3DF555980927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,9 @@
   <calcPr calcId="162913"/>
   <customWorkbookViews>
     <customWorkbookView name="Oktavia Intifada Husna - Personal View" guid="{F84F113B-1ACC-45E5-A6DC-411D74C99F95}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="hp - Personal View" guid="{17101799-8200-4151-AEBE-6CDC40A61FAA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
+    <customWorkbookView name="Kalinga, Agnes - Personal View" guid="{B0EC71A6-F8E8-4D42-9918-972E5566A443}" mergeInterval="0" personalView="1" xWindow="6" yWindow="20" windowWidth="1714" windowHeight="995" activeSheetId="1"/>
     <customWorkbookView name="Badre, Lara - Personal View" guid="{61C7386F-07EB-4198-B2FD-4D1A7B0F335F}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
-    <customWorkbookView name="Kalinga, Agnes - Personal View" guid="{B0EC71A6-F8E8-4D42-9918-972E5566A443}" mergeInterval="0" personalView="1" xWindow="6" yWindow="20" windowWidth="1714" windowHeight="995" activeSheetId="1"/>
-    <customWorkbookView name="hp - Personal View" guid="{17101799-8200-4151-AEBE-6CDC40A61FAA}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" activeSheetId="1"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -17354,8 +17354,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{526095B5-A390-43A6-AF1F-F485AA7B0226}" diskRevisions="1" revisionId="2589" version="6">
-  <header guid="{526095B5-A390-43A6-AF1F-F485AA7B0226}" dateTime="2024-01-26T15:01:54" maxSheetId="3" userName="Oktavia Intifada Husna" r:id="rId543">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7371F080-F1CC-4A49-B050-6CD3608D36AB}" diskRevisions="1" revisionId="2590" version="7">
+  <header guid="{7371F080-F1CC-4A49-B050-6CD3608D36AB}" dateTime="2024-03-27T15:56:18" maxSheetId="3" userName="Oktavia Intifada Husna" r:id="rId544">
     <sheetIdMap count="2">
       <sheetId val="1"/>
       <sheetId val="2"/>
@@ -17364,29 +17364,12 @@
 </headers>
 </file>
 
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="1" sqref="A1:H620">
-    <dxf>
-      <alignment wrapText="0"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="A1:H620">
-    <dxf>
-      <alignment wrapText="1"/>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="1" sqref="D105" start="0" length="0">
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-        <name val="Arial"/>
-        <family val="2"/>
-      </font>
-    </dxf>
-  </rfmt>
+  <rcv guid="{F84F113B-1ACC-45E5-A6DC-411D74C99F95}" action="delete"/>
   <rdn rId="0" localSheetId="1" customView="1" name="Z_F84F113B_1ACC_45E5_A6DC_411D74C99F95_.wvu.FilterData" hidden="1" oldHidden="1">
     <formula>'ISCO-08 EN Struct and defin'!$A$1:$A$620</formula>
+    <oldFormula>'ISCO-08 EN Struct and defin'!$A$1:$A$620</oldFormula>
   </rdn>
   <rcv guid="{F84F113B-1ACC-45E5-A6DC-411D74C99F95}" action="add"/>
 </revisions>
@@ -17720,8 +17703,8 @@
   <dimension ref="A1:H620"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A619" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E620" sqref="E620"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -33856,19 +33839,20 @@
   <autoFilter ref="A1:A620" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <customSheetViews>
     <customSheetView guid="{F84F113B-1ACC-45E5-A6DC-411D74C99F95}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A619" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E620" sqref="E620"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="A1:A620" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
     </customSheetView>
-    <customSheetView guid="{61C7386F-07EB-4198-B2FD-4D1A7B0F335F}">
+    <customSheetView guid="{17101799-8200-4151-AEBE-6CDC40A61FAA}" showAutoFilter="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="E611" sqref="E611"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="0" orientation="portrait" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
+      <autoFilter ref="A1:A620" xr:uid="{262BBBFF-995D-4617-9022-23A83FB7AAB3}"/>
     </customSheetView>
     <customSheetView guid="{B0EC71A6-F8E8-4D42-9918-972E5566A443}" topLeftCell="B1">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
@@ -33877,13 +33861,12 @@
       <pageSetup paperSize="0" orientation="portrait" r:id="rId3"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{17101799-8200-4151-AEBE-6CDC40A61FAA}" showAutoFilter="1">
+    <customSheetView guid="{61C7386F-07EB-4198-B2FD-4D1A7B0F335F}">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E611" sqref="E611"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup paperSize="0" orientation="portrait" r:id="rId4"/>
       <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="A1:A620" xr:uid="{1BD9AA1D-6131-4E98-8F49-E62D81B48D3D}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -33913,7 +33896,7 @@
       <selection activeCell="C11" sqref="C11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{61C7386F-07EB-4198-B2FD-4D1A7B0F335F}" state="hidden">
+    <customSheetView guid="{17101799-8200-4151-AEBE-6CDC40A61FAA}" state="hidden">
       <selection activeCell="C11" sqref="C11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -33921,7 +33904,7 @@
       <selection activeCell="C11" sqref="C11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{17101799-8200-4151-AEBE-6CDC40A61FAA}" state="hidden">
+    <customSheetView guid="{61C7386F-07EB-4198-B2FD-4D1A7B0F335F}" state="hidden">
       <selection activeCell="C11" sqref="C11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
